--- a/evaluation/online/tuning.xlsx
+++ b/evaluation/online/tuning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\falco\Desktop\NeuralNetwork-library\evaluation\online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4093A378-524A-440B-A3F1-7A377966D0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34918BE7-4B18-4FAB-A061-E9085010B3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="81">
   <si>
     <t>id</t>
   </si>
@@ -202,6 +202,81 @@
   </si>
   <si>
     <t>STD_E</t>
+  </si>
+  <si>
+    <t>acc_test</t>
+  </si>
+  <si>
+    <t>0.9053</t>
+  </si>
+  <si>
+    <t>0.7728</t>
+  </si>
+  <si>
+    <t>0.139</t>
+  </si>
+  <si>
+    <t>0.9737</t>
+  </si>
+  <si>
+    <t>0.9721</t>
+  </si>
+  <si>
+    <t>0.9647</t>
+  </si>
+  <si>
+    <t>0.9717</t>
+  </si>
+  <si>
+    <t>0.9723</t>
+  </si>
+  <si>
+    <t>0.9695</t>
+  </si>
+  <si>
+    <t>0.8644</t>
+  </si>
+  <si>
+    <t>0.7738</t>
+  </si>
+  <si>
+    <t>0.2012</t>
+  </si>
+  <si>
+    <t>0.977</t>
+  </si>
+  <si>
+    <t>0.9767</t>
+  </si>
+  <si>
+    <t>0.9772</t>
+  </si>
+  <si>
+    <t>0.9793</t>
+  </si>
+  <si>
+    <t>0.8359</t>
+  </si>
+  <si>
+    <t>0.6558</t>
+  </si>
+  <si>
+    <t>0.2128</t>
+  </si>
+  <si>
+    <t>0.9798</t>
+  </si>
+  <si>
+    <t>0.981</t>
+  </si>
+  <si>
+    <t>0.9804</t>
+  </si>
+  <si>
+    <t>0.9801</t>
+  </si>
+  <si>
+    <t>0.9796</t>
   </si>
 </sst>
 </file>
@@ -2012,10 +2087,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7113A23F-33FB-4794-86F4-BD44C3D75A14}">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1048576"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,16 +2099,18 @@
     <col min="2" max="2" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="2"/>
-    <col min="17" max="17" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="9.140625" style="2"/>
+    <col min="5" max="6" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="4" customWidth="1"/>
+    <col min="8" max="9" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2053,49 +2130,52 @@
         <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>60</v>
       </c>
@@ -2114,26 +2194,29 @@
       <c r="F2" s="4">
         <v>0.90500000000000003</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="4">
         <v>20427.938465322779</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>5401.9563269952596</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>38</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>2246.21</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>0.90952495876458728</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>0.90491042654176945</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>61</v>
       </c>
@@ -2152,26 +2235,29 @@
       <c r="F3" s="4">
         <v>0.76241666666666663</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="4">
         <v>54325.421384219633</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>13726.12776131337</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>8</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1233.44</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.73175342869351234</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
         <v>0.73067511199563651</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>62</v>
       </c>
@@ -2190,26 +2276,29 @@
       <c r="F4" s="4">
         <v>0.13958333333333331</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="4">
         <v>325450.26663331711</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>81635.672864459193</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>13</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1532.61</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>7.4173025766290951E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>7.2500695078164298E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>63</v>
       </c>
@@ -2228,26 +2317,29 @@
       <c r="F5" s="4">
         <v>0.97233333333333338</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="4">
         <v>1013.639424002541</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>1158.5838957537001</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>15</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>1112.8800000000001</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.99605609365008152</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
         <v>0.97210447064395067</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>64</v>
       </c>
@@ -2266,26 +2358,29 @@
       <c r="F6" s="4">
         <v>0.97016666666666662</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="4">
         <v>1124.824340308729</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>1241.155940219694</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>11</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>1188.71</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>0.99413479331051957</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>0.96992341380006253</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>65</v>
       </c>
@@ -2304,26 +2399,29 @@
       <c r="F7" s="4">
         <v>0.96491666666666664</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="4">
         <v>2704.583594910192</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>1492.5981694765501</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>6</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>915.44</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>0.98191505681107372</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>0.96467143948158252</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>66</v>
       </c>
@@ -2342,26 +2440,29 @@
       <c r="F8" s="4">
         <v>0.97050000000000003</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="4">
         <v>1451.225359719278</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>1159.64452713483</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>21</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>1325.72</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>0.99348430287975675</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>0.97028237342617685</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>67</v>
       </c>
@@ -2380,26 +2481,29 @@
       <c r="F9" s="4">
         <v>0.97050000000000003</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="4">
         <v>1009.68271946017</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>1200.795274801111</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>16</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>1414.51</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>0.99589758986068377</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>0.97025930129013604</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>68</v>
       </c>
@@ -2418,58 +2522,64 @@
       <c r="F10" s="4">
         <v>0.9674166666666667</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="4">
         <v>1993.937425948428</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>1351.4217365389061</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>7</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>963.66</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>0.98748496442836642</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>0.9671351614220407</v>
       </c>
-      <c r="O10" s="4">
+      <c r="P10" s="4">
         <f>AVERAGE(F2:F10)</f>
         <v>0.84698148148148156</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <f>_xlfn.STDEV.S(F2:F10)</f>
         <v>0.27403105745066675</v>
       </c>
-      <c r="Q10" s="4">
-        <f>AVERAGE(H2:H10)</f>
+      <c r="R10" s="4">
+        <f>AVERAGE(I2:I10)</f>
         <v>12040.884055188068</v>
       </c>
-      <c r="R10" s="2">
-        <f>_xlfn.STDEV.S(H2:H10)</f>
+      <c r="S10" s="2">
+        <f>_xlfn.STDEV.S(I2:I10)</f>
         <v>26426.427254444494</v>
       </c>
-      <c r="S10" s="2">
+      <c r="T10" s="2">
+        <f>AVERAGE(K2:K10)</f>
+        <v>1325.9088888888889</v>
+      </c>
+      <c r="U10" s="2">
+        <f>_xlfn.STDEV.S(K2:K10)</f>
+        <v>398.43349214280568</v>
+      </c>
+      <c r="V10" s="2">
         <f>AVERAGE(J2:J10)</f>
-        <v>1325.9088888888889</v>
-      </c>
-      <c r="T10" s="2">
+        <v>15</v>
+      </c>
+      <c r="W10" s="2">
         <f>_xlfn.STDEV.S(J2:J10)</f>
-        <v>398.43349214280568</v>
-      </c>
-      <c r="U10" s="2">
-        <f>AVERAGE(I2:I10)</f>
-        <v>15</v>
-      </c>
-      <c r="V10" s="2">
-        <f>_xlfn.STDEV.S(I2:I10)</f>
         <v>9.8742088290657488</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>69</v>
       </c>
@@ -2488,26 +2598,29 @@
       <c r="F12" s="4">
         <v>0.85641666666666671</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="4">
         <v>103877.3272502591</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>26449.258780111581</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>40</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>4721.6499999999996</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>0.85427794730248507</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <v>0.85142730862087301</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>70</v>
       </c>
@@ -2526,26 +2639,29 @@
       <c r="F13" s="4">
         <v>0.76675000000000004</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="4">
         <v>201392.56980245441</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>50194.573740684144</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>29</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>3930.7</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>0.75789061149941428</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>0.75853760104417833</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>71</v>
       </c>
@@ -2564,26 +2680,29 @@
       <c r="F14" s="4">
         <v>0.20558333333333331</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="4">
         <v>552429.92816054891</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>136574.78663366221</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>2</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>1417.23</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>0.111938894575891</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>0.1125899835984758</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>72</v>
       </c>
@@ -2602,26 +2721,29 @@
       <c r="F15" s="4">
         <v>0.9770833333333333</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="4">
         <v>356.34041618700871</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>910.00299994060754</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>19</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>1828.72</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>0.99963115380986489</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
         <v>0.97690125449647314</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>73</v>
       </c>
@@ -2640,26 +2762,29 @@
       <c r="F16" s="4">
         <v>0.97833333333333339</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="4">
         <v>288.86076027030248</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>974.8338663249466</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>12</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>1857.21</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.99954684314501852</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>0.9781458144373818</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>74</v>
       </c>
@@ -2678,26 +2803,29 @@
       <c r="F17" s="4">
         <v>0.97841666666666671</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="4">
         <v>98.120397524849778</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>1105.6341103347729</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <v>13</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>1818.89</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>0.99979529916337451</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>0.97821545199987836</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>75</v>
       </c>
@@ -2716,26 +2844,29 @@
       <c r="F18" s="4">
         <v>0.97724999999999995</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="4">
         <v>616.37890228546701</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>892.90809416266598</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>26</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>2184.16</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>0.99905924047007333</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>0.97704231691816246</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>76</v>
       </c>
@@ -2754,26 +2885,29 @@
       <c r="F19" s="4">
         <v>0.97799999999999998</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="4">
         <v>377.72688020430212</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>900.54517079141624</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <v>18</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <v>2526.87</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>0.99957711850715114</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
         <v>0.97783752873375673</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>77</v>
       </c>
@@ -2792,58 +2926,64 @@
       <c r="F20" s="4">
         <v>0.9770833333333333</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="4">
         <v>209.6162075887226</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>967.01909462733568</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <v>12</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <v>1736.33</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>0.99968980675068353</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
         <v>0.97688334889436468</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P20" s="4">
         <f>AVERAGE(F12:F20)</f>
         <v>0.85499074074074066</v>
       </c>
-      <c r="P20" s="2">
+      <c r="Q20" s="2">
         <f>_xlfn.STDEV.S(F12:F20)</f>
         <v>0.2549160654497532</v>
       </c>
-      <c r="Q20" s="4">
-        <f>AVERAGE(H12:H20)</f>
+      <c r="R20" s="4">
+        <f>AVERAGE(I12:I20)</f>
         <v>24329.951387848851</v>
       </c>
-      <c r="R20" s="2">
-        <f>_xlfn.STDEV.S(H12:H20)</f>
+      <c r="S20" s="2">
+        <f>_xlfn.STDEV.S(I12:I20)</f>
         <v>45483.178596532052</v>
       </c>
-      <c r="S20" s="2">
+      <c r="T20" s="2">
+        <f>AVERAGE(K12:K20)</f>
+        <v>2446.8622222222216</v>
+      </c>
+      <c r="U20" s="2">
+        <f>_xlfn.STDEV.S(K12:K20)</f>
+        <v>1125.8876998037799</v>
+      </c>
+      <c r="V20" s="2">
         <f>AVERAGE(J12:J20)</f>
-        <v>2446.8622222222216</v>
-      </c>
-      <c r="T20" s="2">
+        <v>19</v>
+      </c>
+      <c r="W20" s="2">
         <f>_xlfn.STDEV.S(J12:J20)</f>
-        <v>1125.8876998037799</v>
-      </c>
-      <c r="U20" s="2">
-        <f>AVERAGE(I12:I20)</f>
-        <v>19</v>
-      </c>
-      <c r="V20" s="2">
-        <f>_xlfn.STDEV.S(I12:I20)</f>
         <v>11.258330249197702</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>78</v>
       </c>
@@ -2862,26 +3002,29 @@
       <c r="F22" s="4">
         <v>0.83416666666666661</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="4">
         <v>161984.48118099099</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>39730.793433623112</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <v>25</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <v>9104.57</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L22" s="4">
         <v>0.83046708182094109</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="4">
         <v>0.8327304130270381</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>79</v>
       </c>
@@ -2900,26 +3043,29 @@
       <c r="F23" s="4">
         <v>0.65800000000000003</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="4">
         <v>359922.22324650368</v>
       </c>
-      <c r="H23" s="4">
+      <c r="I23" s="4">
         <v>88026.317481687613</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <v>12</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <v>7160.76</v>
       </c>
-      <c r="K23" s="4">
+      <c r="L23" s="4">
         <v>0.62784594586520059</v>
       </c>
-      <c r="L23" s="4">
+      <c r="M23" s="4">
         <v>0.63771890154917366</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>80</v>
       </c>
@@ -2938,26 +3084,29 @@
       <c r="F24" s="4">
         <v>0.2165</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="4">
         <v>828577.97258553328</v>
       </c>
-      <c r="H24" s="4">
+      <c r="I24" s="4">
         <v>204634.07846979829</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="2">
         <v>0</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="2">
         <v>3747.37</v>
       </c>
-      <c r="K24" s="4">
+      <c r="L24" s="4">
         <v>0.1207489435171845</v>
       </c>
-      <c r="L24" s="4">
+      <c r="M24" s="4">
         <v>0.12536380806301031</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>81</v>
       </c>
@@ -2976,26 +3125,29 @@
       <c r="F25" s="4">
         <v>0.98016666666666663</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="4">
         <v>299.02499757416899</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>808.00449073028608</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="2">
         <v>17</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
         <v>6552.24</v>
       </c>
-      <c r="K25" s="4">
+      <c r="L25" s="4">
         <v>0.99965755994194994</v>
       </c>
-      <c r="L25" s="4">
+      <c r="M25" s="4">
         <v>0.98004747413077609</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>82</v>
       </c>
@@ -3014,26 +3166,29 @@
       <c r="F26" s="4">
         <v>0.97958333333333336</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="4">
         <v>160.27491000565431</v>
       </c>
-      <c r="H26" s="4">
+      <c r="I26" s="4">
         <v>824.8651680288408</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="2">
         <v>12</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="2">
         <v>6249.45</v>
       </c>
-      <c r="K26" s="4">
+      <c r="L26" s="4">
         <v>0.99991953984575055</v>
       </c>
-      <c r="L26" s="4">
+      <c r="M26" s="4">
         <v>0.97939351023915466</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>83</v>
       </c>
@@ -3052,25 +3207,27 @@
       <c r="F27" s="6">
         <v>0.98116666666666663</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="6">
         <v>60.310061191849307</v>
       </c>
-      <c r="H27" s="6">
+      <c r="I27" s="6">
         <v>968.81719365876802</v>
       </c>
-      <c r="I27" s="5">
+      <c r="J27" s="5">
         <v>11</v>
       </c>
-      <c r="J27" s="5">
+      <c r="K27" s="5">
         <v>5914.49</v>
       </c>
-      <c r="K27" s="6">
+      <c r="L27" s="6">
         <v>0.99993683853388171</v>
       </c>
-      <c r="L27" s="6">
+      <c r="M27" s="6">
         <v>0.98099339251340023</v>
       </c>
-      <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
@@ -3078,8 +3235,9 @@
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W27" s="5"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>84</v>
       </c>
@@ -3098,26 +3256,29 @@
       <c r="F28" s="4">
         <v>0.97858333333333336</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="4">
         <v>306.99206408624821</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I28" s="4">
         <v>853.79266399118069</v>
       </c>
-      <c r="I28" s="2">
+      <c r="J28" s="2">
         <v>33</v>
       </c>
-      <c r="J28" s="2">
+      <c r="K28" s="2">
         <v>10174.290000000001</v>
       </c>
-      <c r="K28" s="4">
+      <c r="L28" s="4">
         <v>0.99974237898887197</v>
       </c>
-      <c r="L28" s="4">
+      <c r="M28" s="4">
         <v>0.97844434457457441</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>85</v>
       </c>
@@ -3136,26 +3297,29 @@
       <c r="F29" s="4">
         <v>0.97916666666666663</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="4">
         <v>298.79721736211138</v>
       </c>
-      <c r="H29" s="4">
+      <c r="I29" s="4">
         <v>839.62729232269123</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="2">
         <v>17</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
         <v>6850.16</v>
       </c>
-      <c r="K29" s="4">
+      <c r="L29" s="4">
         <v>0.99969681011733924</v>
       </c>
-      <c r="L29" s="4">
+      <c r="M29" s="4">
         <v>0.97896048889354348</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>86</v>
       </c>
@@ -3174,54 +3338,57 @@
       <c r="F30" s="4">
         <v>0.98008333333333331</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="4">
         <v>227.65556271310581</v>
       </c>
-      <c r="H30" s="4">
+      <c r="I30" s="4">
         <v>807.32453789924364</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <v>9</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
         <v>4971.6499999999996</v>
       </c>
-      <c r="K30" s="4">
+      <c r="L30" s="4">
         <v>0.99958707522733281</v>
       </c>
-      <c r="L30" s="4">
+      <c r="M30" s="4">
         <v>0.97987168715362927</v>
       </c>
-      <c r="O30" s="4">
+      <c r="P30" s="4">
         <f>AVERAGE(F22:F30)</f>
         <v>0.84304629629629635</v>
       </c>
-      <c r="P30" s="2">
+      <c r="Q30" s="2">
         <f>_xlfn.STDEV.S(F22:F30)</f>
         <v>0.25958645701408128</v>
       </c>
-      <c r="Q30" s="4">
-        <f>AVERAGE(H22:H30)</f>
+      <c r="R30" s="4">
+        <f>AVERAGE(I22:I30)</f>
         <v>37499.291192415556</v>
       </c>
-      <c r="R30" s="2">
-        <f>_xlfn.STDEV.S(H22:H30)</f>
+      <c r="S30" s="2">
+        <f>_xlfn.STDEV.S(I22:I30)</f>
         <v>69417.991739716934</v>
       </c>
-      <c r="S30" s="2">
+      <c r="T30" s="2">
+        <f>AVERAGE(K22:K30)</f>
+        <v>6747.22</v>
+      </c>
+      <c r="U30" s="2">
+        <f>_xlfn.STDEV.S(K22:K30)</f>
+        <v>1956.224043156868</v>
+      </c>
+      <c r="V30" s="2">
         <f>AVERAGE(J22:J30)</f>
-        <v>6747.22</v>
-      </c>
-      <c r="T30" s="2">
+        <v>15.111111111111111</v>
+      </c>
+      <c r="W30" s="2">
         <f>_xlfn.STDEV.S(J22:J30)</f>
-        <v>1956.224043156868</v>
-      </c>
-      <c r="U30" s="2">
-        <f>AVERAGE(I22:I30)</f>
-        <v>15.111111111111111</v>
-      </c>
-      <c r="V30" s="2">
-        <f>_xlfn.STDEV.S(I22:I30)</f>
         <v>9.5321094785525347</v>
       </c>
     </row>
